--- a/Doku/NewCustomerTimes.xlsx
+++ b/Doku/NewCustomerTimes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\SWE_CustomerManager\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Neuer Customer</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>Zeiten</t>
+  </si>
+  <si>
+    <t>Zeiten nach optimierung</t>
+  </si>
+  <si>
+    <t>absolute Verbesserung</t>
+  </si>
+  <si>
+    <t>relative Verbesserung</t>
   </si>
 </sst>
 </file>
@@ -101,10 +110,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -420,143 +430,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.33081E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>6.2449999999999997E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9.6631000000000009E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>7.6090000000000003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6543000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>6.5265999999999996E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.1149900000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5.5954999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.3467999999999996E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>9.9918999999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5522000000000002E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4.0867000000000004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.6153000000000002E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1.1128900000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6.202E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6.5307999999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.8849000000000002E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6.5294000000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.9083E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>4.2119000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8.3183000000000007E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6.0245999999999997E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6.4514000000000004E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5.9218999999999999E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>9.6845999999999998E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7.5613E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>9.7246999999999993E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>6.0455999999999999E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>5.4006999999999996E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="B12">
+        <v>6.5014000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <f>AVERAGE(A2)</f>
         <v>1.33081E-2</v>
       </c>
+      <c r="B13" s="3">
+        <f ca="1">AVERAGE(B2:B20)</f>
+        <v>6.8142818181818193E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <f ca="1">A13-B13</f>
+        <v>6.4938181818181805E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <f ca="1">(A13-B13)/A13*100</f>
+        <v>48.795982761011572</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1"/>
+    <hyperlink ref="F1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doku/NewCustomerTimes.xlsx
+++ b/Doku/NewCustomerTimes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
